--- a/TBN_VertebrateList_xlsx/protected_species_list.xlsx
+++ b/TBN_VertebrateList_xlsx/protected_species_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\物種名錄\保育類野生動物名錄\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\TBN_VertebrateList\TBN_VertebrateList_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="欄位說明" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="2105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="2108">
   <si>
     <t>Scientific name</t>
   </si>
@@ -6371,6 +6371,17 @@
   </si>
   <si>
     <t>英文備註</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protected species list number</t>
+  </si>
+  <si>
+    <t>Protected species list number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>保育類野生動物名錄編號</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7033,7 +7044,7 @@
     <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7051,14 +7062,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7338,9 +7341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -7348,50 +7353,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>2105</v>
       </c>
       <c r="B1" t="s">
-        <v>1817</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1904</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2104</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1662</v>
+        <v>1904</v>
       </c>
       <c r="B3" t="s">
-        <v>1818</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>1662</v>
       </c>
       <c r="B4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>2031</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2103</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1820</v>
       </c>
     </row>
@@ -7405,9 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G962"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -7420,6 +7431,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2106</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
